--- a/.NET/ER2SpreadTool/Testdata/test.xlsx
+++ b/.NET/ER2SpreadTool/Testdata/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\.NET\WinFormsApp1\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\.NET\ER2SpreadTool\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A0729E-DFED-4B66-BEC1-FE01D1D6D310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FAE211-814A-420E-9AD1-6397F73C2979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>

--- a/.NET/ER2SpreadTool/Testdata/test.xlsx
+++ b/.NET/ER2SpreadTool/Testdata/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\.NET\ER2SpreadTool\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FAE211-814A-420E-9AD1-6397F73C2979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23001D20-E3C0-4DC2-9928-0A7B102182D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="EXPECT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +23,59 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>テーブル名</t>
+  </si>
+  <si>
+    <t>カラム名</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>明細ヘッダ</t>
+  </si>
+  <si>
+    <t>明細種別</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>会社名</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>明細</t>
+  </si>
+  <si>
+    <t>明細行番号</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>金額</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -672,4 +726,102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/.NET/ER2SpreadTool/Testdata/test.xlsx
+++ b/.NET/ER2SpreadTool/Testdata/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\.NET\ER2SpreadTool\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23001D20-E3C0-4DC2-9928-0A7B102182D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A828E5F-50A1-4F30-BDBF-3408A8A23265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>#</t>
   </si>
@@ -74,6 +74,21 @@
   </si>
   <si>
     <t>金額</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>車両</t>
+  </si>
+  <si>
+    <t>車種</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>番号</t>
   </si>
 </sst>
 </file>
@@ -442,6 +457,210 @@
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>金額</a:t>
             </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46898806-3459-7EB9-2A97-AF17AD89A1D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1238250" y="3362325"/>
+          <a:ext cx="2867025" cy="2647950"/>
+          <a:chOff x="1238250" y="3362325"/>
+          <a:chExt cx="2867025" cy="2647950"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="テキスト ボックス 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B5A477-9BB4-4F80-AD84-2ECF1122B6AB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1238250" y="3362325"/>
+            <a:ext cx="2867025" cy="628650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>車両</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="テキスト ボックス 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C0BA6B-1912-7E08-A39B-27610D07FC83}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1238250" y="3981450"/>
+            <a:ext cx="2867025" cy="1219200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>車種</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>番号</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F82505-A735-4EB4-DF62-EDBE26EA2A12}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1238250" y="5162550"/>
+            <a:ext cx="2867025" cy="847725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -717,7 +936,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -730,9 +949,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -820,6 +1041,34 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.NET/ER2SpreadTool/Testdata/test.xlsx
+++ b/.NET/ER2SpreadTool/Testdata/test.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\.NET\ER2SpreadTool\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A828E5F-50A1-4F30-BDBF-3408A8A23265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E3DF27-1F73-42C4-9EBD-969CB791953A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
-    <sheet name="EXPECT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,74 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>テーブル名</t>
-  </si>
-  <si>
-    <t>カラム名</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>明細ヘッダ</t>
-  </si>
-  <si>
-    <t>明細種別</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>会社名</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>明細</t>
-  </si>
-  <si>
-    <t>明細行番号</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>商品名</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>金額</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>車両</t>
-  </si>
-  <si>
-    <t>車種</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>番号</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -945,132 +876,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/.NET/ER2SpreadTool/Testdata/test.xlsx
+++ b/.NET/ER2SpreadTool/Testdata/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\.NET\ER2SpreadTool\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E3DF27-1F73-42C4-9EBD-969CB791953A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09E7451-2811-4528-9916-4A904DD89BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,6 +540,44 @@
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>番号</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>車種</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -867,7 +905,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
